--- a/Daily_target_work.xlsx
+++ b/Daily_target_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -39,9 +39,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t xml:space="preserve">Python Scripts to login a remote system and run a command </t>
-  </si>
-  <si>
     <t xml:space="preserve">Done </t>
   </si>
   <si>
@@ -54,7 +51,31 @@
     <t>Login to remote system used a sites help for that link is http://sebastiandahlgren.se/2012/10/11/using-paramiko-to-send-ssh-commands/</t>
   </si>
   <si>
-    <t>Target</t>
+    <t xml:space="preserve"> fabric module can be very usefull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calling a module insiade a module </t>
+  </si>
+  <si>
+    <t>still working on it if posibble to call it from another module or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabric , </t>
+  </si>
+  <si>
+    <t>Python Scripts to login a remote system and run a command , login to romote system and get the memory usage</t>
+  </si>
+  <si>
+    <t>Target for tommorow</t>
+  </si>
+  <si>
+    <t>try to use and understand fabric and is it better than ssh or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabric and whether any module is there for text processing </t>
+  </si>
+  <si>
+    <t>for tonight target study</t>
   </si>
 </sst>
 </file>
@@ -62,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -99,10 +120,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -111,9 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -121,6 +168,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -426,37 +479,48 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
       <c r="A2" s="1">
         <v>42303</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
@@ -468,7 +532,7 @@
         <v>42305</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -476,7 +540,7 @@
         <v>42306</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -484,7 +548,7 @@
         <v>42307</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -565,26 +629,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -594,26 +681,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="135">
+      <c r="A2" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_target_work.xlsx
+++ b/Daily_target_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>for tonight target study</t>
+  </si>
+  <si>
+    <t>Loging multiple machine and excute a command</t>
+  </si>
+  <si>
+    <t>creating a loop using the for loop</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,98 +532,108 @@
       <c r="A3" s="1">
         <v>42304</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>42305</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>42306</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
+        <v>42305</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>42307</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>42306</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>42308</v>
+        <v>42307</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>42309</v>
+        <v>42308</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>42310</v>
+        <v>42309</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>42311</v>
+        <v>42310</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>42312</v>
+        <v>42311</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>42313</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>42314</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>42315</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>42316</v>
+        <v>42315</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>42317</v>
+        <v>42316</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1">
-        <v>42318</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1">
-        <v>42319</v>
+        <v>42318</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1">
-        <v>42320</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1">
+        <v>42320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
         <v>42321</v>
       </c>
     </row>
@@ -631,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
